--- a/Listado_MANOOBRA.xlsx
+++ b/Listado_MANOOBRA.xlsx
@@ -204,16 +204,16 @@
         <v>16</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>640000</v>
@@ -254,16 +254,16 @@
         <v>16</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>640000</v>
@@ -304,16 +304,16 @@
         <v>16</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>640000</v>
@@ -354,16 +354,16 @@
         <v>16</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>640000</v>
@@ -404,16 +404,16 @@
         <v>16</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>0</v>
@@ -454,16 +454,16 @@
         <v>17</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>0</v>
@@ -504,16 +504,16 @@
         <v>16</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>0</v>
@@ -554,16 +554,16 @@
         <v>16</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>0</v>
@@ -604,16 +604,16 @@
         <v>16</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>0</v>
@@ -654,16 +654,16 @@
         <v>16</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>16</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="1" t="n">
         <v>0</v>
@@ -754,16 +754,16 @@
         <v>16</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>0</v>
@@ -804,16 +804,16 @@
         <v>16</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>0</v>
@@ -854,16 +854,16 @@
         <v>16</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>0</v>
@@ -904,16 +904,16 @@
         <v>16</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>0</v>
@@ -954,16 +954,16 @@
         <v>16</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>0</v>
@@ -1004,16 +1004,16 @@
         <v>16</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>0</v>
@@ -1054,13 +1054,13 @@
         <v>20</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>0.5</v>
@@ -1104,13 +1104,13 @@
         <v>20</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F20" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>0.5</v>
@@ -1154,13 +1154,13 @@
         <v>20</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>0.5</v>
@@ -1204,13 +1204,13 @@
         <v>20</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>0.5</v>
@@ -1254,13 +1254,13 @@
         <v>20</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>0.5</v>
@@ -1304,13 +1304,13 @@
         <v>20</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>0.5</v>
@@ -1354,16 +1354,16 @@
         <v>17</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>0</v>
@@ -1404,16 +1404,16 @@
         <v>17</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="1" t="n">
         <v>0</v>
@@ -1454,16 +1454,16 @@
         <v>17</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>0</v>
@@ -1504,16 +1504,16 @@
         <v>21</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>0</v>
@@ -1554,16 +1554,16 @@
         <v>17</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F29" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="1" t="n">
         <v>0</v>
@@ -1604,16 +1604,16 @@
         <v>17</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="1" t="n">
         <v>0</v>
@@ -1654,16 +1654,16 @@
         <v>24</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F31" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="1" t="n">
         <v>0</v>
@@ -1704,16 +1704,16 @@
         <v>24</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F32" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="1" t="n">
         <v>0</v>
@@ -1754,16 +1754,16 @@
         <v>21</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F33" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" s="1" t="n">
         <v>0</v>
@@ -1804,16 +1804,16 @@
         <v>21</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F34" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" s="1" t="n">
         <v>0</v>

--- a/Listado_MANOOBRA.xlsx
+++ b/Listado_MANOOBRA.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>FECHA</t>
   </si>
@@ -58,34 +58,85 @@
     <t>JORNAL</t>
   </si>
   <si>
+    <t>IMPUTACION</t>
+  </si>
+  <si>
+    <t>OTs</t>
+  </si>
+  <si>
     <t>Luis Enrique Oviedo</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>10/10</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
     <t>null</t>
   </si>
   <si>
+    <t>/</t>
+  </si>
+  <si>
     <t>analia riveros</t>
   </si>
   <si>
+    <t>control porton</t>
+  </si>
+  <si>
+    <t>/2</t>
+  </si>
+  <si>
     <t>clientito 1</t>
   </si>
   <si>
     <t>Luis Enrique</t>
   </si>
   <si>
+    <t>camineros</t>
+  </si>
+  <si>
+    <t>asdvbb</t>
+  </si>
+  <si>
+    <t>12344565/4</t>
+  </si>
+  <si>
     <t>Analia Riveros</t>
   </si>
   <si>
     <t>Luis Oviedo</t>
   </si>
   <si>
+    <t>PRUEBA DE OBRA</t>
+  </si>
+  <si>
+    <t>OBRA TEST</t>
+  </si>
+  <si>
+    <t>obra de trabajo</t>
+  </si>
+  <si>
+    <t>123/86869</t>
+  </si>
+  <si>
     <t>paleto</t>
+  </si>
+  <si>
+    <t>5/1233</t>
+  </si>
+  <si>
+    <t>5/23</t>
+  </si>
+  <si>
+    <t>hierro porton</t>
+  </si>
+  <si>
+    <t>23/100</t>
   </si>
 </sst>
 </file>
@@ -137,13 +188,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -192,22 +243,31 @@
       <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="4">
         <v>43588</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>0.5</v>
@@ -242,22 +302,31 @@
       <c r="P2" s="1" t="n">
         <v>80000</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="4">
         <v>43587</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>0.5</v>
@@ -292,22 +361,31 @@
       <c r="P3" s="1" t="n">
         <v>80000</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="4">
         <v>43586</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>0.5</v>
@@ -342,22 +420,31 @@
       <c r="P4" s="1" t="n">
         <v>80000</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="4">
         <v>43585</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>0.5</v>
@@ -392,22 +479,31 @@
       <c r="P5" s="1" t="n">
         <v>80000</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="4">
         <v>43584</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>0.5</v>
@@ -442,22 +538,31 @@
       <c r="P6" s="1" t="n">
         <v>80000</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="4">
         <v>43564</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>0.5</v>
@@ -492,22 +597,31 @@
       <c r="P7" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="4">
         <v>43563</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>0.5</v>
@@ -542,22 +656,31 @@
       <c r="P8" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="4">
         <v>43557</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>0.5</v>
@@ -592,22 +715,31 @@
       <c r="P9" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="4">
         <v>43557</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F10" s="1" t="n">
         <v>0.5</v>
@@ -642,22 +774,31 @@
       <c r="P10" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="4">
         <v>43544</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>0.5</v>
@@ -692,22 +833,31 @@
       <c r="P11" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="4">
         <v>43543</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F12" s="1" t="n">
         <v>0.5</v>
@@ -742,22 +892,31 @@
       <c r="P12" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="4">
         <v>43542</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F13" s="1" t="n">
         <v>0.5</v>
@@ -792,22 +951,31 @@
       <c r="P13" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="4">
         <v>43541</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F14" s="1" t="n">
         <v>0.5</v>
@@ -842,22 +1010,31 @@
       <c r="P14" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="4">
         <v>43536</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F15" s="1" t="n">
         <v>0.5</v>
@@ -892,22 +1069,31 @@
       <c r="P15" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="Q15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="4">
         <v>43535</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F16" s="1" t="n">
         <v>0.5</v>
@@ -942,22 +1128,31 @@
       <c r="P16" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="Q16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="4">
         <v>43535</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F17" s="1" t="n">
         <v>0.5</v>
@@ -992,22 +1187,31 @@
       <c r="P17" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="Q17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="4">
         <v>43534</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F18" s="1" t="n">
         <v>0.5</v>
@@ -1042,22 +1246,31 @@
       <c r="P18" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="Q18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="4">
         <v>43509</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F19" s="1" t="n">
         <v>0.5</v>
@@ -1092,22 +1305,31 @@
       <c r="P19" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="Q19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="4">
         <v>43508</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F20" s="1" t="n">
         <v>0.5</v>
@@ -1142,22 +1364,31 @@
       <c r="P20" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="Q20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="4">
         <v>43507</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F21" s="1" t="n">
         <v>0.5</v>
@@ -1192,22 +1423,31 @@
       <c r="P21" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="Q21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="4">
         <v>43505</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F22" s="1" t="n">
         <v>0.5</v>
@@ -1242,22 +1482,31 @@
       <c r="P22" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="Q22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="4">
         <v>43504</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F23" s="1" t="n">
         <v>0.5</v>
@@ -1292,22 +1541,31 @@
       <c r="P23" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="Q23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="4">
         <v>43503</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F24" s="1" t="n">
         <v>0.5</v>
@@ -1342,22 +1600,31 @@
       <c r="P24" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="Q24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="4">
         <v>43480</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D25" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F25" s="1" t="n">
         <v>0.5</v>
@@ -1392,22 +1659,31 @@
       <c r="P25" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="Q25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="4">
         <v>43480</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D26" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F26" s="1" t="n">
         <v>0.5</v>
@@ -1442,22 +1718,31 @@
       <c r="P26" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="Q26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" s="4">
         <v>43480</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D27" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F27" s="1" t="n">
         <v>0.5</v>
@@ -1492,22 +1777,31 @@
       <c r="P27" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="Q27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="4">
         <v>43475</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F28" s="1" t="n">
         <v>0.5</v>
@@ -1542,22 +1836,31 @@
       <c r="P28" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="Q28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="4">
         <v>43474</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D29" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F29" s="1" t="n">
         <v>0.5</v>
@@ -1592,22 +1895,31 @@
       <c r="P29" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="Q29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="4">
         <v>43474</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D30" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F30" s="1" t="n">
         <v>0.5</v>
@@ -1642,22 +1954,31 @@
       <c r="P30" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="Q30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="4">
         <v>43471</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D31" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F31" s="1" t="n">
         <v>0.5</v>
@@ -1692,22 +2013,31 @@
       <c r="P31" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="Q31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="4">
         <v>25569</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D32" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F32" s="1" t="n">
         <v>0.5</v>
@@ -1742,22 +2072,31 @@
       <c r="P32" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="Q32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" s="4">
         <v>25569</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D33" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F33" s="1" t="n">
         <v>0.5</v>
@@ -1792,22 +2131,31 @@
       <c r="P33" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="Q33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" s="4">
         <v>25569</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D34" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F34" s="1" t="n">
         <v>0.5</v>
@@ -1841,6 +2189,15 @@
       </c>
       <c r="P34" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Listado_MANOOBRA.xlsx
+++ b/Listado_MANOOBRA.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>FECHA</t>
   </si>
@@ -65,6 +65,27 @@
   </si>
   <si>
     <t>Luis Enrique Oviedo</t>
+  </si>
+  <si>
+    <t>Luis Enrique</t>
+  </si>
+  <si>
+    <t>clientito 1</t>
+  </si>
+  <si>
+    <t>Casa Particular</t>
+  </si>
+  <si>
+    <t>igelsia</t>
+  </si>
+  <si>
+    <t>23/999901</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>/</t>
   </si>
   <si>
     <t>prueba de 2</t>
@@ -128,7 +149,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -195,7 +216,7 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="4">
-        <v>43604</v>
+        <v>43614</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>17</v>
@@ -210,63 +231,63 @@
         <v>19</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>640000</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>640000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>520000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O2" s="1" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1" t="n">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="4">
-        <v>43603</v>
+        <v>43612</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>0.5</v>
@@ -284,31 +305,149 @@
         <v>0</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="4">
+        <v>43604</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>640000</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>640000</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>520000</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="M3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1" t="n">
+      <c r="M4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1" t="n">
         <v>2500</v>
       </c>
-      <c r="P3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>21</v>
+      <c r="P4" s="1" t="n">
+        <v>80000</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="4">
+        <v>43603</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1" t="n">
+        <v>2500</v>
+      </c>
+      <c r="P5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Listado_MANOOBRA.xlsx
+++ b/Listado_MANOOBRA.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>FECHA</t>
   </si>
@@ -67,12 +67,30 @@
     <t>Luis Enrique Oviedo</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>analia riveros</t>
+  </si>
+  <si>
+    <t>clientito 1</t>
+  </si>
+  <si>
+    <t>control porton</t>
+  </si>
+  <si>
+    <t>camineros</t>
+  </si>
+  <si>
+    <t>2/12344565</t>
+  </si>
+  <si>
     <t>Luis Enrique</t>
   </si>
   <si>
-    <t>clientito 1</t>
-  </si>
-  <si>
     <t>Casa Particular</t>
   </si>
   <si>
@@ -80,12 +98,6 @@
   </si>
   <si>
     <t>23/999901</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>/</t>
   </si>
   <si>
     <t>prueba de 2</t>
@@ -149,7 +161,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -216,7 +228,7 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="4">
-        <v>43614</v>
+        <v>43619</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>17</v>
@@ -228,102 +240,102 @@
         <v>0.5</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="4">
-        <v>43612</v>
+        <v>43617</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>0</v>
+        <v>55000</v>
       </c>
       <c r="J3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L3" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O3" s="1" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1" t="n">
-        <v>0</v>
+        <v>13750</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>23</v>
@@ -334,7 +346,7 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="4">
-        <v>43604</v>
+        <v>43614</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>17</v>
@@ -346,43 +358,43 @@
         <v>0.5</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>640000</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>640000</v>
-      </c>
-      <c r="J4" s="1" t="n">
-        <v>520000</v>
-      </c>
-      <c r="K4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="M4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1" t="n">
-        <v>2500</v>
-      </c>
-      <c r="P4" s="1" t="n">
-        <v>80000</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>27</v>
@@ -393,19 +405,19 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="4">
-        <v>43603</v>
+        <v>43612</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>0.5</v>
@@ -423,31 +435,149 @@
         <v>0</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="4">
+        <v>43604</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>640000</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>640000</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>520000</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="M5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1" t="n">
+      <c r="M6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1" t="n">
         <v>2500</v>
       </c>
-      <c r="P5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>28</v>
+      <c r="P6" s="1" t="n">
+        <v>80000</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="4">
+        <v>43603</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1" t="n">
+        <v>2500</v>
+      </c>
+      <c r="P7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Listado_MANOOBRA.xlsx
+++ b/Listado_MANOOBRA.xlsx
@@ -237,16 +237,16 @@
         <v>18</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>0</v>
@@ -414,16 +414,16 @@
         <v>18</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>0</v>
